--- a/复成6600项目通讯接口数据表6月调试版.xlsx
+++ b/复成6600项目通讯接口数据表6月调试版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21274" windowHeight="8605"/>
+    <workbookView windowWidth="12900" windowHeight="6497"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="293">
   <si>
     <t>ModBus寄存器表1 主机读取</t>
   </si>
@@ -607,19 +607,19 @@
     <t>照明灯指令</t>
   </si>
   <si>
-    <t>int16； 0：关闭 2：打开</t>
-  </si>
-  <si>
     <t>车机/移动端相关，可类比汽车主照明灯；</t>
   </si>
   <si>
     <t>0x0055</t>
   </si>
   <si>
+    <t>双闪指令</t>
+  </si>
+  <si>
+    <t>0x0056</t>
+  </si>
+  <si>
     <t>预留指令</t>
-  </si>
-  <si>
-    <t>0x0056</t>
   </si>
   <si>
     <t>0x0057</t>
@@ -905,16 +905,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -954,13 +947,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1111,7 +1097,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,12 +1239,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,277 +1637,268 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2252,2239 +2223,2241 @@
   </sheetPr>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.6083333333333" customWidth="1"/>
     <col min="5" max="5" width="77.5416666666667" customWidth="1"/>
     <col min="6" max="6" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:6">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:6">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:6">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="10" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:6">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:6">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:6">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" ht="35" customHeight="1" spans="1:6">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" ht="35" customHeight="1" spans="1:6">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="10" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" ht="35" customHeight="1" spans="1:6">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="10" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" ht="35" customHeight="1" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="10" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:6">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" ht="35" customHeight="1" spans="1:6">
-      <c r="A19" s="9">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="8">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" ht="35" customHeight="1" spans="1:6">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>8</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" ht="35" customHeight="1" spans="1:6">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>9</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" ht="35" customHeight="1" spans="1:6">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>10</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:6">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>11</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" ht="35" customHeight="1" spans="1:6">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>12</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:6">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>13</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:6">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>14</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" ht="35" customHeight="1" spans="1:6">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>15</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:6">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>16</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" ht="35" customHeight="1" spans="1:6">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>17</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" ht="35" customHeight="1" spans="1:6">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>18</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" ht="35" customHeight="1" spans="1:6">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>19</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:6">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>20</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" ht="56" customHeight="1" spans="1:6">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>21</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" ht="65" customHeight="1" spans="1:6">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>22</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" ht="35" customHeight="1" spans="1:6">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>23</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" ht="35" customHeight="1" spans="1:6">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>24</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="20" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:6">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>25</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="20" t="s">
+      <c r="E37" s="21"/>
+      <c r="F37" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" ht="35" customHeight="1" spans="1:6">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>26</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" ht="35" customHeight="1" spans="1:6">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>27</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="20" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" ht="35" customHeight="1" spans="1:6">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>28</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="20" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:6">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>29</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="20" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" ht="35" customHeight="1" spans="1:6">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>30</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="20" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" ht="35" customHeight="1" spans="1:6">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>31</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="20" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" ht="35" customHeight="1" spans="1:6">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>32</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="20" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="45" ht="35" customHeight="1" spans="1:6">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>33</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="20" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="46" ht="35" customHeight="1" spans="1:6">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>34</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="20" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" ht="35" customHeight="1" spans="1:6">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>35</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="20" t="s">
+      <c r="E47" s="21"/>
+      <c r="F47" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" ht="35" customHeight="1" spans="1:6">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>36</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="20" t="s">
+      <c r="E48" s="9"/>
+      <c r="F48" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" ht="35" customHeight="1" spans="1:6">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>37</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="20" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" ht="35" customHeight="1" spans="1:6">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>38</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="20" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:6">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>39</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="20" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="52" ht="35" customHeight="1" spans="1:6">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>40</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="20" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:6">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>41</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="20" t="s">
+      <c r="E53" s="9"/>
+      <c r="F53" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="54" ht="35" customHeight="1" spans="1:6">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>42</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="20" t="s">
+      <c r="E54" s="9"/>
+      <c r="F54" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="55" ht="35" customHeight="1" spans="1:6">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>43</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="20" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="56" ht="35" customHeight="1" spans="1:6">
-      <c r="A56" s="9">
+      <c r="A56" s="8">
         <v>44</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="20" t="s">
+      <c r="E56" s="9"/>
+      <c r="F56" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" ht="35" customHeight="1" spans="1:6">
-      <c r="A57" s="9">
+      <c r="A57" s="8">
         <v>45</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="20" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="58" ht="35" customHeight="1" spans="1:6">
-      <c r="A58" s="9">
+      <c r="A58" s="8">
         <v>46</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="20" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="59" ht="35" customHeight="1" spans="1:6">
-      <c r="A59" s="9">
+      <c r="A59" s="8">
         <v>47</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="20" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" ht="35" customHeight="1" spans="1:6">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>48</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="23" t="s">
+      <c r="B60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="20" t="s">
+      <c r="E60" s="9"/>
+      <c r="F60" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="61" ht="35" customHeight="1" spans="1:6">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>49</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="23" t="s">
+      <c r="B61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="20" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="62" ht="35" customHeight="1" spans="1:6">
-      <c r="A62" s="9">
+      <c r="A62" s="8">
         <v>50</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="23" t="s">
+      <c r="B62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="20" t="s">
+      <c r="E62" s="9"/>
+      <c r="F62" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="63" ht="35" customHeight="1" spans="1:6">
-      <c r="A63" s="9">
+      <c r="A63" s="8">
         <v>51</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="23" t="s">
+      <c r="B63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="20" t="s">
+      <c r="E63" s="9"/>
+      <c r="F63" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" ht="35" customHeight="1" spans="1:6">
-      <c r="A64" s="9">
+      <c r="A64" s="8">
         <v>52</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="23" t="s">
+      <c r="B64" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="20" t="s">
+      <c r="E64" s="9"/>
+      <c r="F64" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="65" ht="35" customHeight="1" spans="1:6">
-      <c r="A65" s="9">
+      <c r="A65" s="8">
         <v>53</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="23" t="s">
+      <c r="B65" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="20" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="66" ht="35" customHeight="1" spans="1:6">
-      <c r="A66" s="9">
+      <c r="A66" s="8">
         <v>54</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="23" t="s">
+      <c r="B66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="20" t="s">
+      <c r="E66" s="9"/>
+      <c r="F66" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" ht="35" customHeight="1" spans="1:6">
-      <c r="A67" s="9">
+      <c r="A67" s="8">
         <v>55</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="23" t="s">
+      <c r="B67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="20" t="s">
+      <c r="E67" s="9"/>
+      <c r="F67" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="68" ht="35" customHeight="1" spans="1:6">
-      <c r="A68" s="9">
+      <c r="A68" s="8">
         <v>56</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="23" t="s">
+      <c r="B68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="20" t="s">
+      <c r="E68" s="9"/>
+      <c r="F68" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="69" ht="35" customHeight="1" spans="1:6">
-      <c r="A69" s="9">
+      <c r="A69" s="8">
         <v>57</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="23" t="s">
+      <c r="B69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="20" t="s">
+      <c r="E69" s="9"/>
+      <c r="F69" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="70" ht="35" customHeight="1" spans="1:6">
-      <c r="A70" s="9">
+      <c r="A70" s="8">
         <v>58</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="B70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="20" t="s">
+      <c r="E70" s="9"/>
+      <c r="F70" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="71" ht="35" customHeight="1" spans="1:6">
-      <c r="A71" s="9">
+      <c r="A71" s="8">
         <v>59</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="23" t="s">
+      <c r="B71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="20" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="72" ht="35" customHeight="1" spans="1:6">
-      <c r="A72" s="9">
+      <c r="A72" s="8">
         <v>60</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="23" t="s">
+      <c r="B72" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="20" t="s">
+      <c r="E72" s="9"/>
+      <c r="F72" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="73" ht="35" customHeight="1" spans="1:6">
-      <c r="A73" s="9">
+      <c r="A73" s="8">
         <v>61</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="23" t="s">
+      <c r="B73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="20" t="s">
+      <c r="E73" s="9"/>
+      <c r="F73" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="74" ht="35" customHeight="1" spans="1:6">
-      <c r="A74" s="9">
+      <c r="A74" s="8">
         <v>62</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="23" t="s">
+      <c r="B74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="20" t="s">
+      <c r="E74" s="9"/>
+      <c r="F74" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="75" ht="35" customHeight="1" spans="1:6">
-      <c r="A75" s="9">
+      <c r="A75" s="8">
         <v>63</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="23" t="s">
+      <c r="B75" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="20" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="76" ht="72" customHeight="1" spans="1:6">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="26"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" ht="35" customHeight="1" spans="1:6">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="28" t="s">
+      <c r="F77" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" ht="35" customHeight="1" spans="1:6">
-      <c r="A78" s="29">
+      <c r="A78" s="28">
         <v>64</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="79" ht="35" customHeight="1" spans="1:6">
-      <c r="A79" s="29">
+      <c r="A79" s="28">
         <v>65</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="80" ht="35" customHeight="1" spans="1:6">
-      <c r="A80" s="29">
+      <c r="A80" s="28">
         <v>66</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="81" ht="35" customHeight="1" spans="1:6">
-      <c r="A81" s="29">
+      <c r="A81" s="28">
         <v>67</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="82" ht="35" customHeight="1" spans="1:6">
-      <c r="A82" s="29">
+      <c r="A82" s="28">
         <v>68</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="83" ht="35" customHeight="1" spans="1:6">
-      <c r="A83" s="29">
+      <c r="A83" s="28">
         <v>69</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84" ht="35" customHeight="1" spans="1:6">
-      <c r="A84" s="29">
+      <c r="A84" s="28">
         <v>70</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="85" ht="35" customHeight="1" spans="1:6">
-      <c r="A85" s="29">
+      <c r="A85" s="28">
         <v>71</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86" ht="35" customHeight="1" spans="1:6">
-      <c r="A86" s="29">
+      <c r="A86" s="28">
         <v>72</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="87" ht="35" customHeight="1" spans="1:6">
-      <c r="A87" s="29">
+      <c r="A87" s="28">
         <v>73</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="88" ht="35" customHeight="1" spans="1:6">
-      <c r="A88" s="29">
+      <c r="A88" s="28">
         <v>74</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="89" ht="35" customHeight="1" spans="1:6">
-      <c r="A89" s="29">
+      <c r="A89" s="28">
         <v>75</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="90" ht="35" customHeight="1" spans="1:6">
-      <c r="A90" s="29">
+      <c r="A90" s="28">
         <v>76</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F90" s="20" t="s">
+      <c r="F90" s="19" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="91" ht="35" customHeight="1" spans="1:6">
-      <c r="A91" s="29">
+      <c r="A91" s="28">
         <v>77</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F91" s="20" t="s">
+      <c r="F91" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="92" ht="35" customHeight="1" spans="1:6">
-      <c r="A92" s="29">
+      <c r="A92" s="28">
         <v>78</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="93" ht="35" customHeight="1" spans="1:6">
-      <c r="A93" s="29">
+      <c r="A93" s="28">
         <v>79</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="94" ht="35" customHeight="1" spans="1:6">
-      <c r="A94" s="29">
+      <c r="A94" s="28">
         <v>80</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="95" ht="35" customHeight="1" spans="1:6">
-      <c r="A95" s="29">
+      <c r="A95" s="28">
         <v>81</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="96" ht="35" customHeight="1" spans="1:6">
-      <c r="A96" s="29">
+      <c r="A96" s="28">
         <v>82</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97" ht="35" customHeight="1" spans="1:6">
-      <c r="A97" s="29">
+      <c r="A97" s="28">
         <v>83</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="98" ht="35" customHeight="1" spans="1:6">
-      <c r="A98" s="29">
+      <c r="A98" s="28">
         <v>84</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F98" s="10" t="s">
+    </row>
+    <row r="99" ht="35" customHeight="1" spans="1:6">
+      <c r="A99" s="28">
+        <v>85</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="99" ht="35" customHeight="1" spans="1:6">
-      <c r="A99" s="29">
-        <v>85</v>
-      </c>
-      <c r="B99" s="9" t="s">
+      <c r="D99" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" ht="35" customHeight="1" spans="1:6">
+      <c r="A100" s="28">
+        <v>86</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C99" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="C100" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" ht="35" customHeight="1" spans="1:6">
-      <c r="A100" s="29">
-        <v>86</v>
-      </c>
-      <c r="B100" s="9" t="s">
+      <c r="D100" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" ht="35" customHeight="1" spans="1:6">
+      <c r="A101" s="28">
+        <v>87</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C101" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-    </row>
-    <row r="101" ht="35" customHeight="1" spans="1:6">
-      <c r="A101" s="29">
-        <v>87</v>
-      </c>
-      <c r="B101" s="9" t="s">
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" ht="35" customHeight="1" spans="1:6">
+      <c r="A102" s="28">
+        <v>88</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C101" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-    </row>
-    <row r="102" ht="35" customHeight="1" spans="1:6">
-      <c r="A102" s="29">
-        <v>88</v>
-      </c>
-      <c r="B102" s="9" t="s">
+      <c r="C102" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" ht="35" customHeight="1" spans="1:6">
+      <c r="A103" s="28">
+        <v>89</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C102" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" ht="35" customHeight="1" spans="1:6">
-      <c r="A103" s="29">
-        <v>89</v>
-      </c>
-      <c r="B103" s="9" t="s">
+      <c r="C103" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" ht="35" customHeight="1" spans="1:6">
+      <c r="A104" s="28">
+        <v>90</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C103" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-    </row>
-    <row r="104" ht="35" customHeight="1" spans="1:6">
-      <c r="A104" s="29">
-        <v>90</v>
-      </c>
-      <c r="B104" s="9" t="s">
+      <c r="C104" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" ht="35" customHeight="1" spans="1:6">
+      <c r="A105" s="28">
+        <v>91</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C104" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-    </row>
-    <row r="105" ht="35" customHeight="1" spans="1:6">
-      <c r="A105" s="29">
-        <v>91</v>
-      </c>
-      <c r="B105" s="9" t="s">
+      <c r="C105" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" ht="35" customHeight="1" spans="1:6">
+      <c r="A106" s="28">
+        <v>92</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C105" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-    </row>
-    <row r="106" ht="35" customHeight="1" spans="1:6">
-      <c r="A106" s="29">
-        <v>92</v>
-      </c>
-      <c r="B106" s="9" t="s">
+      <c r="C106" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" ht="35" customHeight="1" spans="1:6">
+      <c r="A107" s="28">
+        <v>93</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C106" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" ht="35" customHeight="1" spans="1:6">
-      <c r="A107" s="29">
-        <v>93</v>
-      </c>
-      <c r="B107" s="9" t="s">
+      <c r="C107" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" ht="35" customHeight="1" spans="1:6">
+      <c r="A108" s="28">
+        <v>94</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-    </row>
-    <row r="108" ht="35" customHeight="1" spans="1:6">
-      <c r="A108" s="29">
-        <v>94</v>
-      </c>
-      <c r="B108" s="9" t="s">
+      <c r="C108" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" ht="35" customHeight="1" spans="1:6">
+      <c r="A109" s="28">
+        <v>95</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C108" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-    </row>
-    <row r="109" ht="35" customHeight="1" spans="1:6">
-      <c r="A109" s="29">
-        <v>95</v>
-      </c>
-      <c r="B109" s="9" t="s">
+      <c r="C109" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" ht="35" customHeight="1" spans="1:6">
+      <c r="A110" s="28">
+        <v>96</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-    </row>
-    <row r="110" ht="35" customHeight="1" spans="1:6">
-      <c r="A110" s="29">
-        <v>96</v>
-      </c>
-      <c r="B110" s="9" t="s">
+      <c r="C110" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" ht="35" customHeight="1" spans="1:6">
+      <c r="A111" s="28">
+        <v>97</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C110" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-    </row>
-    <row r="111" ht="35" customHeight="1" spans="1:6">
-      <c r="A111" s="29">
-        <v>97</v>
-      </c>
-      <c r="B111" s="9" t="s">
+      <c r="C111" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" ht="35" customHeight="1" spans="1:6">
+      <c r="A112" s="28">
+        <v>98</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C111" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-    </row>
-    <row r="112" ht="35" customHeight="1" spans="1:6">
-      <c r="A112" s="29">
-        <v>98</v>
-      </c>
-      <c r="B112" s="9" t="s">
+      <c r="C112" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" ht="35" customHeight="1" spans="1:6">
+      <c r="A113" s="28">
+        <v>99</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C112" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-    </row>
-    <row r="113" ht="35" customHeight="1" spans="1:6">
-      <c r="A113" s="29">
-        <v>99</v>
-      </c>
-      <c r="B113" s="9" t="s">
+      <c r="C113" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" ht="35" customHeight="1" spans="1:6">
+      <c r="A114" s="28">
+        <v>100</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-    </row>
-    <row r="114" ht="35" customHeight="1" spans="1:6">
-      <c r="A114" s="29">
-        <v>100</v>
-      </c>
-      <c r="B114" s="9" t="s">
+      <c r="C114" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" ht="35" customHeight="1" spans="1:6">
+      <c r="A115" s="28">
+        <v>101</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C114" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-    </row>
-    <row r="115" ht="35" customHeight="1" spans="1:6">
-      <c r="A115" s="29">
-        <v>101</v>
-      </c>
-      <c r="B115" s="9" t="s">
+      <c r="C115" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" ht="35" customHeight="1" spans="1:6">
+      <c r="A116" s="28">
+        <v>102</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C115" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-    </row>
-    <row r="116" ht="35" customHeight="1" spans="1:6">
-      <c r="A116" s="29">
-        <v>102</v>
-      </c>
-      <c r="B116" s="9" t="s">
+      <c r="C116" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" ht="35" customHeight="1" spans="1:6">
+      <c r="A117" s="28">
+        <v>103</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C116" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-    </row>
-    <row r="117" ht="35" customHeight="1" spans="1:6">
-      <c r="A117" s="29">
-        <v>103</v>
-      </c>
-      <c r="B117" s="9" t="s">
+      <c r="C117" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+    </row>
+    <row r="118" ht="35" customHeight="1" spans="1:6">
+      <c r="A118" s="28">
+        <v>104</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-    </row>
-    <row r="118" ht="35" customHeight="1" spans="1:6">
-      <c r="A118" s="29">
-        <v>104</v>
-      </c>
-      <c r="B118" s="9" t="s">
+      <c r="C118" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" ht="35" customHeight="1" spans="1:6">
+      <c r="A119" s="28">
+        <v>105</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C118" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-    </row>
-    <row r="119" ht="35" customHeight="1" spans="1:6">
-      <c r="A119" s="29">
-        <v>105</v>
-      </c>
-      <c r="B119" s="9" t="s">
+      <c r="C119" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" ht="35" customHeight="1" spans="1:6">
+      <c r="A120" s="28">
+        <v>106</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C119" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-    </row>
-    <row r="120" ht="35" customHeight="1" spans="1:6">
-      <c r="A120" s="29">
-        <v>106</v>
-      </c>
-      <c r="B120" s="9" t="s">
+      <c r="C120" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" ht="35" customHeight="1" spans="1:6">
+      <c r="A121" s="28">
+        <v>107</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C120" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-    </row>
-    <row r="121" ht="35" customHeight="1" spans="1:6">
-      <c r="A121" s="29">
-        <v>107</v>
-      </c>
-      <c r="B121" s="9" t="s">
+      <c r="C121" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" ht="35" customHeight="1" spans="1:6">
+      <c r="A122" s="28">
+        <v>108</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C121" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" ht="35" customHeight="1" spans="1:6">
-      <c r="A122" s="29">
-        <v>108</v>
-      </c>
-      <c r="B122" s="9" t="s">
+      <c r="C122" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+    </row>
+    <row r="123" ht="35" customHeight="1" spans="1:6">
+      <c r="A123" s="28">
+        <v>109</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C122" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-    </row>
-    <row r="123" ht="35" customHeight="1" spans="1:6">
-      <c r="A123" s="29">
-        <v>109</v>
-      </c>
-      <c r="B123" s="9" t="s">
+      <c r="C123" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+    </row>
+    <row r="124" ht="35" customHeight="1" spans="1:6">
+      <c r="A124" s="28">
+        <v>110</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C123" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-    </row>
-    <row r="124" ht="35" customHeight="1" spans="1:6">
-      <c r="A124" s="29">
-        <v>110</v>
-      </c>
-      <c r="B124" s="9" t="s">
+      <c r="C124" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" ht="35" customHeight="1" spans="1:6">
+      <c r="A125" s="28">
+        <v>111</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C124" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-    </row>
-    <row r="125" ht="35" customHeight="1" spans="1:6">
-      <c r="A125" s="29">
-        <v>111</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D125" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
+      <c r="D125" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
     </row>
     <row r="126" ht="35" customHeight="1" spans="1:6">
       <c r="A126" s="31" t="s">
@@ -4508,19 +4481,19 @@
       <c r="A128" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D128" s="39" t="s">
+      <c r="D128" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E128" s="39" t="s">
+      <c r="E128" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F128" s="40" t="s">
+      <c r="F128" s="38" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4528,1379 +4501,1379 @@
       <c r="A129" s="37">
         <v>1010</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="D129" s="39" t="s">
+      <c r="D129" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E129" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F129" s="40"/>
+      <c r="E129" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F129" s="38"/>
     </row>
     <row r="130" ht="35" customHeight="1" spans="1:6">
       <c r="A130" s="37">
         <v>1011</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C130" s="38"/>
-      <c r="D130" s="39" t="s">
+      <c r="C130" s="22"/>
+      <c r="D130" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E130" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F130" s="40"/>
+      <c r="E130" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F130" s="38"/>
     </row>
     <row r="131" ht="35" customHeight="1" spans="1:6">
       <c r="A131" s="37">
         <v>1012</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C131" s="38"/>
-      <c r="D131" s="39" t="s">
+      <c r="C131" s="22"/>
+      <c r="D131" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E131" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F131" s="40"/>
+      <c r="E131" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F131" s="38"/>
     </row>
     <row r="132" ht="35" customHeight="1" spans="1:6">
       <c r="A132" s="37">
         <v>1013</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C132" s="38"/>
-      <c r="D132" s="39" t="s">
+      <c r="C132" s="22"/>
+      <c r="D132" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E132" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F132" s="40"/>
+      <c r="E132" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F132" s="38"/>
     </row>
     <row r="133" ht="35" customHeight="1" spans="1:6">
       <c r="A133" s="37">
         <v>1014</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="B133" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="39" t="s">
+      <c r="C133" s="22"/>
+      <c r="D133" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E133" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F133" s="40"/>
+      <c r="E133" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F133" s="38"/>
     </row>
     <row r="134" ht="35" customHeight="1" spans="1:6">
       <c r="A134" s="37">
         <v>1015</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C134" s="38"/>
-      <c r="D134" s="39" t="s">
+      <c r="C134" s="22"/>
+      <c r="D134" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E134" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F134" s="40"/>
+      <c r="E134" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F134" s="38"/>
     </row>
     <row r="135" ht="35" customHeight="1" spans="1:6">
       <c r="A135" s="37">
         <v>1016</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C135" s="38"/>
-      <c r="D135" s="39" t="s">
+      <c r="C135" s="22"/>
+      <c r="D135" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E135" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F135" s="40"/>
+      <c r="E135" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F135" s="38"/>
     </row>
     <row r="136" ht="35" customHeight="1" spans="1:6">
       <c r="A136" s="37">
         <v>1017</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B136" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C136" s="38"/>
-      <c r="D136" s="39" t="s">
+      <c r="C136" s="22"/>
+      <c r="D136" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E136" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F136" s="40"/>
+      <c r="E136" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F136" s="38"/>
     </row>
     <row r="137" ht="35" customHeight="1" spans="1:6">
       <c r="A137" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C137" s="38"/>
-      <c r="D137" s="39" t="s">
+      <c r="C137" s="22"/>
+      <c r="D137" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E137" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F137" s="40"/>
+      <c r="E137" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F137" s="38"/>
     </row>
     <row r="138" ht="35" customHeight="1" spans="1:6">
       <c r="A138" s="37">
         <v>1091</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C138" s="38"/>
-      <c r="D138" s="39" t="s">
+      <c r="C138" s="22"/>
+      <c r="D138" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E138" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F138" s="40"/>
+      <c r="E138" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F138" s="38"/>
     </row>
     <row r="139" ht="35" customHeight="1" spans="1:6">
       <c r="A139" s="37">
         <v>1092</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C139" s="38"/>
-      <c r="D139" s="39" t="s">
+      <c r="C139" s="22"/>
+      <c r="D139" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E139" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F139" s="40"/>
+      <c r="E139" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F139" s="38"/>
     </row>
     <row r="140" ht="35" customHeight="1" spans="1:6">
       <c r="A140" s="37">
         <v>1093</v>
       </c>
-      <c r="B140" s="38" t="s">
+      <c r="B140" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C140" s="38"/>
-      <c r="D140" s="39" t="s">
+      <c r="C140" s="22"/>
+      <c r="D140" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E140" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F140" s="40"/>
+      <c r="E140" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F140" s="38"/>
     </row>
     <row r="141" ht="35" customHeight="1" spans="1:6">
       <c r="A141" s="37">
         <v>1094</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C141" s="38"/>
-      <c r="D141" s="39" t="s">
+      <c r="C141" s="22"/>
+      <c r="D141" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E141" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F141" s="40"/>
+      <c r="E141" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F141" s="38"/>
     </row>
     <row r="142" ht="35" customHeight="1" spans="1:6">
       <c r="A142" s="37">
         <v>1095</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C142" s="38"/>
-      <c r="D142" s="39" t="s">
+      <c r="C142" s="22"/>
+      <c r="D142" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E142" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F142" s="40"/>
+      <c r="E142" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F142" s="38"/>
     </row>
     <row r="143" ht="35" customHeight="1" spans="1:6">
       <c r="A143" s="37">
         <v>1096</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C143" s="38"/>
-      <c r="D143" s="39" t="s">
+      <c r="C143" s="22"/>
+      <c r="D143" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E143" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F143" s="40"/>
+      <c r="E143" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F143" s="38"/>
     </row>
     <row r="144" ht="35" customHeight="1" spans="1:6">
       <c r="A144" s="37">
         <v>1097</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="B144" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C144" s="38"/>
-      <c r="D144" s="39" t="s">
+      <c r="C144" s="22"/>
+      <c r="D144" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E144" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F144" s="40"/>
+      <c r="E144" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F144" s="38"/>
     </row>
     <row r="145" ht="35" customHeight="1" spans="1:6">
       <c r="A145" s="37">
         <v>1098</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="B145" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C145" s="38"/>
-      <c r="D145" s="39" t="s">
+      <c r="C145" s="22"/>
+      <c r="D145" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E145" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F145" s="40"/>
+      <c r="E145" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F145" s="38"/>
     </row>
     <row r="146" ht="35" customHeight="1" spans="1:6">
       <c r="A146" s="37">
         <v>1099</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="38"/>
-      <c r="D146" s="39" t="s">
+      <c r="C146" s="22"/>
+      <c r="D146" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E146" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F146" s="40"/>
+      <c r="E146" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F146" s="38"/>
     </row>
     <row r="147" ht="35" customHeight="1" spans="1:6">
       <c r="A147" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C147" s="38"/>
-      <c r="D147" s="39" t="s">
+      <c r="C147" s="22"/>
+      <c r="D147" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E147" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F147" s="40"/>
+      <c r="E147" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F147" s="38"/>
     </row>
     <row r="148" ht="35" customHeight="1" spans="1:6">
       <c r="A148" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="B148" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C148" s="38"/>
-      <c r="D148" s="39" t="s">
+      <c r="C148" s="22"/>
+      <c r="D148" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E148" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F148" s="40"/>
+      <c r="E148" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F148" s="38"/>
     </row>
     <row r="149" ht="35" customHeight="1" spans="1:6">
       <c r="A149" s="37">
         <v>1081</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="B149" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C149" s="38"/>
-      <c r="D149" s="39" t="s">
+      <c r="C149" s="22"/>
+      <c r="D149" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E149" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F149" s="40"/>
+      <c r="E149" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F149" s="38"/>
     </row>
     <row r="150" ht="35" customHeight="1" spans="1:6">
       <c r="A150" s="37">
         <v>1082</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="B150" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C150" s="38"/>
-      <c r="D150" s="39" t="s">
+      <c r="C150" s="22"/>
+      <c r="D150" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E150" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F150" s="40"/>
+      <c r="E150" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F150" s="38"/>
     </row>
     <row r="151" ht="35" customHeight="1" spans="1:6">
       <c r="A151" s="37">
         <v>1083</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C151" s="38"/>
-      <c r="D151" s="39" t="s">
+      <c r="C151" s="22"/>
+      <c r="D151" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E151" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F151" s="40"/>
+      <c r="E151" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F151" s="38"/>
     </row>
     <row r="152" ht="35" customHeight="1" spans="1:6">
       <c r="A152" s="37">
         <v>1084</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C152" s="38"/>
-      <c r="D152" s="39" t="s">
+      <c r="C152" s="22"/>
+      <c r="D152" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E152" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F152" s="40"/>
+      <c r="E152" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F152" s="38"/>
     </row>
     <row r="153" ht="35" customHeight="1" spans="1:6">
       <c r="A153" s="37">
         <v>1085</v>
       </c>
-      <c r="B153" s="38" t="s">
+      <c r="B153" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C153" s="38"/>
-      <c r="D153" s="39" t="s">
+      <c r="C153" s="22"/>
+      <c r="D153" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E153" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F153" s="40"/>
+      <c r="E153" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F153" s="38"/>
     </row>
     <row r="154" ht="35" customHeight="1" spans="1:6">
       <c r="A154" s="37">
         <v>1086</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="B154" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C154" s="38"/>
-      <c r="D154" s="39" t="s">
+      <c r="C154" s="22"/>
+      <c r="D154" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E154" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F154" s="40"/>
+      <c r="E154" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F154" s="38"/>
     </row>
     <row r="155" ht="35" customHeight="1" spans="1:6">
       <c r="A155" s="37">
         <v>1087</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C155" s="38"/>
-      <c r="D155" s="39" t="s">
+      <c r="C155" s="22"/>
+      <c r="D155" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E155" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F155" s="40"/>
+      <c r="E155" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F155" s="38"/>
     </row>
     <row r="156" ht="35" customHeight="1" spans="1:6">
       <c r="A156" s="37">
         <v>1088</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="B156" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C156" s="38"/>
-      <c r="D156" s="39" t="s">
+      <c r="C156" s="22"/>
+      <c r="D156" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E156" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F156" s="40"/>
+      <c r="E156" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F156" s="38"/>
     </row>
     <row r="157" ht="35" customHeight="1" spans="1:6">
       <c r="A157" s="37">
         <v>1089</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C157" s="38"/>
-      <c r="D157" s="39" t="s">
+      <c r="C157" s="22"/>
+      <c r="D157" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E157" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F157" s="40"/>
+      <c r="E157" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F157" s="38"/>
     </row>
     <row r="158" ht="35" customHeight="1" spans="1:6">
       <c r="A158" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C158" s="38"/>
-      <c r="D158" s="39" t="s">
+      <c r="C158" s="22"/>
+      <c r="D158" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E158" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F158" s="40"/>
+      <c r="E158" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F158" s="38"/>
     </row>
     <row r="159" ht="35" customHeight="1" spans="1:6">
       <c r="A159" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C159" s="38"/>
-      <c r="D159" s="39" t="s">
+      <c r="C159" s="22"/>
+      <c r="D159" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E159" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F159" s="40"/>
+      <c r="E159" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F159" s="38"/>
     </row>
     <row r="160" ht="35" customHeight="1" spans="1:6">
       <c r="A160" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C160" s="38"/>
-      <c r="D160" s="39" t="s">
+      <c r="C160" s="22"/>
+      <c r="D160" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E160" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F160" s="40"/>
+      <c r="E160" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F160" s="38"/>
     </row>
     <row r="161" ht="35" customHeight="1" spans="1:6">
       <c r="A161" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C161" s="38"/>
-      <c r="D161" s="39" t="s">
+      <c r="C161" s="22"/>
+      <c r="D161" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E161" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F161" s="40"/>
+      <c r="E161" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F161" s="38"/>
     </row>
     <row r="162" ht="35" customHeight="1" spans="1:6">
       <c r="A162" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C162" s="38"/>
-      <c r="D162" s="39" t="s">
+      <c r="C162" s="22"/>
+      <c r="D162" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E162" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F162" s="40"/>
+      <c r="E162" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F162" s="38"/>
     </row>
     <row r="163" ht="35" customHeight="1" spans="1:6">
       <c r="A163" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C163" s="38"/>
-      <c r="D163" s="39" t="s">
+      <c r="C163" s="22"/>
+      <c r="D163" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E163" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F163" s="40"/>
+      <c r="E163" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F163" s="38"/>
     </row>
     <row r="164" ht="35" customHeight="1" spans="1:6">
       <c r="A164" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C164" s="38"/>
-      <c r="D164" s="39" t="s">
+      <c r="C164" s="22"/>
+      <c r="D164" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E164" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F164" s="40"/>
+      <c r="E164" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F164" s="38"/>
     </row>
     <row r="165" ht="35" customHeight="1" spans="1:6">
       <c r="A165" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C165" s="38"/>
-      <c r="D165" s="39" t="s">
+      <c r="C165" s="22"/>
+      <c r="D165" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E165" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F165" s="40"/>
+      <c r="E165" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F165" s="38"/>
     </row>
     <row r="166" ht="35" customHeight="1" spans="1:6">
       <c r="A166" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C166" s="38"/>
-      <c r="D166" s="39" t="s">
+      <c r="C166" s="22"/>
+      <c r="D166" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E166" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F166" s="40"/>
+      <c r="E166" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F166" s="38"/>
     </row>
     <row r="167" ht="35" customHeight="1" spans="1:6">
       <c r="A167" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C167" s="38"/>
-      <c r="D167" s="39" t="s">
+      <c r="C167" s="22"/>
+      <c r="D167" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E167" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F167" s="40"/>
+      <c r="E167" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F167" s="38"/>
     </row>
     <row r="168" ht="35" customHeight="1" spans="1:6">
       <c r="A168" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C168" s="38"/>
-      <c r="D168" s="39" t="s">
+      <c r="C168" s="22"/>
+      <c r="D168" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E168" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F168" s="40"/>
+      <c r="E168" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F168" s="38"/>
     </row>
     <row r="169" ht="35" customHeight="1" spans="1:6">
       <c r="A169" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C169" s="38"/>
-      <c r="D169" s="39" t="s">
+      <c r="C169" s="22"/>
+      <c r="D169" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E169" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F169" s="40"/>
+      <c r="E169" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F169" s="38"/>
     </row>
     <row r="170" ht="35" customHeight="1" spans="1:6">
       <c r="A170" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C170" s="38"/>
-      <c r="D170" s="39" t="s">
+      <c r="C170" s="22"/>
+      <c r="D170" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E170" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F170" s="40"/>
+      <c r="E170" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F170" s="38"/>
     </row>
     <row r="171" ht="35" customHeight="1" spans="1:6">
       <c r="A171" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C171" s="38"/>
-      <c r="D171" s="39" t="s">
+      <c r="C171" s="22"/>
+      <c r="D171" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E171" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F171" s="40"/>
+      <c r="E171" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F171" s="38"/>
     </row>
     <row r="172" ht="35" customHeight="1" spans="1:6">
       <c r="A172" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="B172" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C172" s="38"/>
-      <c r="D172" s="39" t="s">
+      <c r="C172" s="22"/>
+      <c r="D172" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E172" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F172" s="40"/>
+      <c r="E172" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F172" s="38"/>
     </row>
     <row r="173" ht="35" customHeight="1" spans="1:6">
       <c r="A173" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C173" s="38"/>
-      <c r="D173" s="39" t="s">
+      <c r="C173" s="22"/>
+      <c r="D173" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E173" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F173" s="40"/>
+      <c r="E173" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F173" s="38"/>
     </row>
     <row r="174" ht="35" customHeight="1" spans="1:6">
       <c r="A174" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C174" s="38"/>
-      <c r="D174" s="39" t="s">
+      <c r="C174" s="22"/>
+      <c r="D174" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E174" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F174" s="40"/>
+      <c r="E174" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F174" s="38"/>
     </row>
     <row r="175" ht="35" customHeight="1" spans="1:6">
       <c r="A175" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C175" s="38"/>
-      <c r="D175" s="39" t="s">
+      <c r="C175" s="22"/>
+      <c r="D175" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E175" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F175" s="40"/>
+      <c r="E175" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F175" s="38"/>
     </row>
     <row r="176" ht="35" customHeight="1" spans="1:6">
       <c r="A176" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="B176" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C176" s="38"/>
-      <c r="D176" s="39" t="s">
+      <c r="C176" s="22"/>
+      <c r="D176" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E176" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F176" s="40"/>
+      <c r="E176" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F176" s="38"/>
     </row>
     <row r="177" ht="35" customHeight="1" spans="1:6">
       <c r="A177" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B177" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C177" s="38"/>
-      <c r="D177" s="39" t="s">
+      <c r="C177" s="22"/>
+      <c r="D177" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E177" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F177" s="40"/>
+      <c r="E177" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F177" s="38"/>
     </row>
     <row r="178" ht="35" customHeight="1" spans="1:6">
       <c r="A178" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C178" s="38"/>
-      <c r="D178" s="39" t="s">
+      <c r="C178" s="22"/>
+      <c r="D178" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E178" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F178" s="40"/>
+      <c r="E178" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F178" s="38"/>
     </row>
     <row r="179" ht="35" customHeight="1" spans="1:6">
       <c r="A179" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B179" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C179" s="38"/>
-      <c r="D179" s="39" t="s">
+      <c r="C179" s="22"/>
+      <c r="D179" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E179" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F179" s="40"/>
+      <c r="E179" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F179" s="38"/>
     </row>
     <row r="180" ht="35" customHeight="1" spans="1:6">
       <c r="A180" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C180" s="38"/>
-      <c r="D180" s="39" t="s">
+      <c r="C180" s="22"/>
+      <c r="D180" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E180" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F180" s="40"/>
+      <c r="E180" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F180" s="38"/>
     </row>
     <row r="181" ht="35" customHeight="1" spans="1:6">
       <c r="A181" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C181" s="38"/>
-      <c r="D181" s="39" t="s">
+      <c r="C181" s="22"/>
+      <c r="D181" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E181" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F181" s="40"/>
+      <c r="E181" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F181" s="38"/>
     </row>
     <row r="182" ht="35" customHeight="1" spans="1:6">
       <c r="A182" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C182" s="38"/>
-      <c r="D182" s="39" t="s">
+      <c r="C182" s="22"/>
+      <c r="D182" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E182" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F182" s="40"/>
+      <c r="E182" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F182" s="38"/>
     </row>
     <row r="183" ht="35" customHeight="1" spans="1:6">
       <c r="A183" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C183" s="38"/>
-      <c r="D183" s="39" t="s">
+      <c r="C183" s="22"/>
+      <c r="D183" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E183" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F183" s="40"/>
+      <c r="E183" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F183" s="38"/>
     </row>
     <row r="184" ht="35" customHeight="1" spans="1:6">
       <c r="A184" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C184" s="38"/>
-      <c r="D184" s="39" t="s">
+      <c r="C184" s="22"/>
+      <c r="D184" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E184" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F184" s="40"/>
+      <c r="E184" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F184" s="38"/>
     </row>
     <row r="185" ht="35" customHeight="1" spans="1:6">
       <c r="A185" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C185" s="38"/>
-      <c r="D185" s="39" t="s">
+      <c r="C185" s="22"/>
+      <c r="D185" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E185" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F185" s="40"/>
+      <c r="E185" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F185" s="38"/>
     </row>
     <row r="186" ht="35" customHeight="1" spans="1:6">
       <c r="A186" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C186" s="38"/>
-      <c r="D186" s="39" t="s">
+      <c r="C186" s="22"/>
+      <c r="D186" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E186" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F186" s="40"/>
+      <c r="E186" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F186" s="38"/>
     </row>
     <row r="187" ht="35" customHeight="1" spans="1:6">
       <c r="A187" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C187" s="38"/>
-      <c r="D187" s="39" t="s">
+      <c r="C187" s="22"/>
+      <c r="D187" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E187" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F187" s="40"/>
+      <c r="E187" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F187" s="38"/>
     </row>
     <row r="188" ht="35" customHeight="1" spans="1:6">
       <c r="A188" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C188" s="38"/>
-      <c r="D188" s="39" t="s">
+      <c r="C188" s="22"/>
+      <c r="D188" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E188" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F188" s="40"/>
+      <c r="E188" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F188" s="38"/>
     </row>
     <row r="189" ht="35" customHeight="1" spans="1:6">
       <c r="A189" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C189" s="38"/>
-      <c r="D189" s="39" t="s">
+      <c r="C189" s="22"/>
+      <c r="D189" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E189" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F189" s="40"/>
+      <c r="E189" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F189" s="38"/>
     </row>
     <row r="190" ht="35" customHeight="1" spans="1:6">
       <c r="A190" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C190" s="38"/>
-      <c r="D190" s="39" t="s">
+      <c r="C190" s="22"/>
+      <c r="D190" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E190" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F190" s="40"/>
+      <c r="E190" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F190" s="38"/>
     </row>
     <row r="191" ht="35" customHeight="1" spans="1:6">
       <c r="A191" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C191" s="38"/>
-      <c r="D191" s="39" t="s">
+      <c r="C191" s="22"/>
+      <c r="D191" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E191" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F191" s="40"/>
+      <c r="E191" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F191" s="38"/>
     </row>
     <row r="192" ht="35" customHeight="1" spans="1:6">
       <c r="A192" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C192" s="38"/>
-      <c r="D192" s="39" t="s">
+      <c r="C192" s="22"/>
+      <c r="D192" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E192" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F192" s="40"/>
+      <c r="E192" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F192" s="38"/>
     </row>
     <row r="193" ht="35" customHeight="1" spans="1:6">
       <c r="A193" s="37">
         <v>1171</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C193" s="38"/>
-      <c r="D193" s="39" t="s">
+      <c r="C193" s="22"/>
+      <c r="D193" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E193" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F193" s="40"/>
+      <c r="E193" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F193" s="38"/>
     </row>
     <row r="194" ht="35" customHeight="1" spans="1:6">
       <c r="A194" s="37">
         <v>1172</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C194" s="38"/>
-      <c r="D194" s="39" t="s">
+      <c r="C194" s="22"/>
+      <c r="D194" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E194" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F194" s="40"/>
+      <c r="E194" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F194" s="38"/>
     </row>
     <row r="195" ht="35" customHeight="1" spans="1:6">
       <c r="A195" s="37">
         <v>1173</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C195" s="38"/>
-      <c r="D195" s="39" t="s">
+      <c r="C195" s="22"/>
+      <c r="D195" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E195" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F195" s="40"/>
+      <c r="E195" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F195" s="38"/>
     </row>
     <row r="196" ht="35" customHeight="1" spans="1:6">
       <c r="A196" s="37">
         <v>1174</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C196" s="38"/>
-      <c r="D196" s="39" t="s">
+      <c r="C196" s="22"/>
+      <c r="D196" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E196" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F196" s="40"/>
+      <c r="E196" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F196" s="38"/>
     </row>
     <row r="197" ht="35" customHeight="1" spans="1:6">
       <c r="A197" s="37">
         <v>1175</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C197" s="38"/>
-      <c r="D197" s="39" t="s">
+      <c r="C197" s="22"/>
+      <c r="D197" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E197" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F197" s="40"/>
+      <c r="E197" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F197" s="38"/>
     </row>
     <row r="198" ht="35" customHeight="1" spans="1:6">
       <c r="A198" s="37">
         <v>1176</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C198" s="38"/>
-      <c r="D198" s="39" t="s">
+      <c r="C198" s="22"/>
+      <c r="D198" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E198" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F198" s="40"/>
+      <c r="E198" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F198" s="38"/>
     </row>
     <row r="199" ht="35" customHeight="1" spans="1:6">
       <c r="A199" s="37">
         <v>1177</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C199" s="38"/>
-      <c r="D199" s="39" t="s">
+      <c r="C199" s="22"/>
+      <c r="D199" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E199" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F199" s="40"/>
+      <c r="E199" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F199" s="38"/>
     </row>
     <row r="200" ht="35" customHeight="1" spans="1:6">
       <c r="A200" s="37">
         <v>1178</v>
       </c>
-      <c r="B200" s="38" t="s">
+      <c r="B200" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C200" s="38"/>
-      <c r="D200" s="39" t="s">
+      <c r="C200" s="22"/>
+      <c r="D200" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E200" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F200" s="40"/>
+      <c r="E200" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F200" s="38"/>
     </row>
     <row r="201" ht="35" customHeight="1" spans="1:6">
       <c r="A201" s="37">
         <v>1179</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C201" s="38"/>
-      <c r="D201" s="39" t="s">
+      <c r="C201" s="22"/>
+      <c r="D201" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E201" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F201" s="40"/>
+      <c r="E201" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F201" s="38"/>
     </row>
     <row r="202" ht="35" customHeight="1" spans="1:6">
       <c r="A202" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C202" s="38"/>
-      <c r="D202" s="39" t="s">
+      <c r="C202" s="22"/>
+      <c r="D202" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E202" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F202" s="40"/>
+      <c r="E202" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F202" s="38"/>
     </row>
     <row r="203" ht="35" customHeight="1" spans="1:6">
       <c r="A203" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C203" s="38"/>
-      <c r="D203" s="39" t="s">
+      <c r="C203" s="22"/>
+      <c r="D203" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E203" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F203" s="40"/>
+      <c r="E203" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F203" s="38"/>
     </row>
     <row r="204" ht="35" customHeight="1" spans="1:6">
       <c r="A204" s="37">
         <v>1271</v>
       </c>
-      <c r="B204" s="38" t="s">
+      <c r="B204" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C204" s="38"/>
-      <c r="D204" s="39" t="s">
+      <c r="C204" s="22"/>
+      <c r="D204" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E204" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F204" s="40"/>
+      <c r="E204" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F204" s="38"/>
     </row>
     <row r="205" ht="35" customHeight="1" spans="1:6">
       <c r="A205" s="37">
         <v>1272</v>
       </c>
-      <c r="B205" s="38" t="s">
+      <c r="B205" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C205" s="38"/>
-      <c r="D205" s="39" t="s">
+      <c r="C205" s="22"/>
+      <c r="D205" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E205" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F205" s="40"/>
+      <c r="E205" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F205" s="38"/>
     </row>
     <row r="206" ht="35" customHeight="1" spans="1:6">
       <c r="A206" s="37">
         <v>1273</v>
       </c>
-      <c r="B206" s="38" t="s">
+      <c r="B206" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C206" s="38"/>
-      <c r="D206" s="39" t="s">
+      <c r="C206" s="22"/>
+      <c r="D206" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E206" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F206" s="40"/>
+      <c r="E206" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F206" s="38"/>
     </row>
     <row r="207" ht="35" customHeight="1" spans="1:6">
       <c r="A207" s="37">
         <v>1274</v>
       </c>
-      <c r="B207" s="38" t="s">
+      <c r="B207" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C207" s="38"/>
-      <c r="D207" s="39" t="s">
+      <c r="C207" s="22"/>
+      <c r="D207" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E207" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F207" s="40"/>
+      <c r="E207" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F207" s="38"/>
     </row>
     <row r="208" ht="35" customHeight="1" spans="1:6">
       <c r="A208" s="37">
         <v>1275</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C208" s="38"/>
-      <c r="D208" s="39" t="s">
+      <c r="C208" s="22"/>
+      <c r="D208" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E208" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F208" s="40"/>
+      <c r="E208" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F208" s="38"/>
     </row>
     <row r="209" ht="35" customHeight="1" spans="1:6">
       <c r="A209" s="37">
         <v>1276</v>
       </c>
-      <c r="B209" s="38" t="s">
+      <c r="B209" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C209" s="38"/>
-      <c r="D209" s="39" t="s">
+      <c r="C209" s="22"/>
+      <c r="D209" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E209" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F209" s="40"/>
+      <c r="E209" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F209" s="38"/>
     </row>
     <row r="210" ht="35" customHeight="1" spans="1:6">
       <c r="A210" s="37">
         <v>1277</v>
       </c>
-      <c r="B210" s="38" t="s">
+      <c r="B210" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C210" s="38"/>
-      <c r="D210" s="39" t="s">
+      <c r="C210" s="22"/>
+      <c r="D210" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E210" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F210" s="40"/>
+      <c r="E210" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F210" s="38"/>
     </row>
     <row r="211" ht="35" customHeight="1" spans="1:6">
       <c r="A211" s="37">
         <v>1278</v>
       </c>
-      <c r="B211" s="38" t="s">
+      <c r="B211" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C211" s="38"/>
-      <c r="D211" s="39" t="s">
+      <c r="C211" s="22"/>
+      <c r="D211" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E211" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F211" s="40"/>
+      <c r="E211" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F211" s="38"/>
     </row>
     <row r="212" ht="35" customHeight="1" spans="1:6">
       <c r="A212" s="37">
         <v>1279</v>
       </c>
-      <c r="B212" s="38" t="s">
+      <c r="B212" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C212" s="38"/>
-      <c r="D212" s="39" t="s">
+      <c r="C212" s="22"/>
+      <c r="D212" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E212" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F212" s="40"/>
+      <c r="E212" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F212" s="38"/>
     </row>
     <row r="213" ht="35" customHeight="1" spans="1:6">
       <c r="A213" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="B213" s="38" t="s">
+      <c r="B213" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C213" s="38"/>
-      <c r="D213" s="39" t="s">
+      <c r="C213" s="22"/>
+      <c r="D213" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E213" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F213" s="40"/>
+      <c r="E213" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F213" s="38"/>
     </row>
     <row r="214" ht="35" customHeight="1" spans="1:6">
-      <c r="A214" s="41" t="s">
+      <c r="A214" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="B214" s="38" t="s">
+      <c r="B214" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C214" s="38"/>
-      <c r="D214" s="39" t="s">
+      <c r="C214" s="22"/>
+      <c r="D214" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E214" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="F214" s="39"/>
+      <c r="E214" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F214" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/复成6600项目通讯接口数据表6月调试版.xlsx
+++ b/复成6600项目通讯接口数据表6月调试版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60232\Desktop\code\R9_407_V1.1\R9_407_V1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fu\Desktop\Code\CodeV1.1\R9_407_V1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF6178-E571-4E6E-8202-11B0256A5568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97210BF2-A581-43A7-BF79-886871C61119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="760" windowWidth="19190" windowHeight="10070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,12 +432,6 @@
     <t>驾驶模式</t>
   </si>
   <si>
-    <t>int16；1：normal 2：indoor 3：outdoor</t>
-  </si>
-  <si>
-    <t>默认：normal</t>
-  </si>
-  <si>
     <t>0x0041</t>
   </si>
   <si>
@@ -921,6 +915,14 @@
   </si>
   <si>
     <t>0x0055</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认：normal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16；1：normal 2：indoor 3：outdoor</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1324,6 +1326,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1358,36 +1390,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1670,31 +1672,31 @@
   </sheetPr>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.640625" customWidth="1"/>
     <col min="5" max="5" width="77.5" customWidth="1"/>
-    <col min="6" max="6" width="65.375" customWidth="1"/>
+    <col min="6" max="6" width="65.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -1734,7 +1736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1747,14 +1749,14 @@
       <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1784,17 +1786,17 @@
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>293</v>
+      <c r="D6" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1814,14 +1816,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
+    <row r="8" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37">
         <v>5</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1830,119 +1832,119 @@
       <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+    <row r="9" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="F11" s="41"/>
+    </row>
+    <row r="12" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>6</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>7</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>8</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>9</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>10</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>11</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>12</v>
       </c>
@@ -2082,7 +2084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>13</v>
       </c>
@@ -2102,7 +2104,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>14</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>15</v>
       </c>
@@ -2142,7 +2144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>16</v>
       </c>
@@ -2162,7 +2164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>17</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>18</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>19</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>20</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>21</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>22</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>23</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>24</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>25</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>26</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>27</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>28</v>
       </c>
@@ -2392,7 +2394,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>29</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>30</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>31</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>32</v>
       </c>
@@ -2464,7 +2466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>33</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>34</v>
       </c>
@@ -2500,7 +2502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>35</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>36</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>37</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>38</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>39</v>
       </c>
@@ -2590,7 +2592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>40</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>41</v>
       </c>
@@ -2626,7 +2628,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>42</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>43</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>44</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>45</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>46</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>47</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>48</v>
       </c>
@@ -2752,7 +2754,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>49</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>50</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>51</v>
       </c>
@@ -2806,7 +2808,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>52</v>
       </c>
@@ -2824,7 +2826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>53</v>
       </c>
@@ -2842,7 +2844,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>54</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>55</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>56</v>
       </c>
@@ -2896,7 +2898,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>57</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>58</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>59</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>60</v>
       </c>
@@ -2968,7 +2970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>61</v>
       </c>
@@ -2986,7 +2988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>62</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>63</v>
       </c>
@@ -3022,17 +3024,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
+    <row r="76" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="26"/>
-    </row>
-    <row r="77" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="36"/>
+    </row>
+    <row r="77" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
         <v>1</v>
       </c>
@@ -3052,7 +3054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="16">
         <v>64</v>
       </c>
@@ -3065,14 +3067,14 @@
       <c r="D78" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="16">
         <v>65</v>
       </c>
@@ -3080,19 +3082,19 @@
         <v>130</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="16">
         <v>66</v>
       </c>
@@ -3100,19 +3102,19 @@
         <v>130</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="F80" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16">
         <v>67</v>
       </c>
@@ -3120,19 +3122,19 @@
         <v>130</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>144</v>
-      </c>
       <c r="F81" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="16">
         <v>68</v>
       </c>
@@ -3140,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="F82" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16">
         <v>69</v>
       </c>
@@ -3160,19 +3162,19 @@
         <v>130</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>150</v>
-      </c>
       <c r="F83" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="16">
         <v>70</v>
       </c>
@@ -3180,19 +3182,19 @@
         <v>130</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D84" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="F84" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16">
         <v>71</v>
       </c>
@@ -3200,19 +3202,19 @@
         <v>130</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="F85" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="16">
         <v>72</v>
       </c>
@@ -3220,19 +3222,19 @@
         <v>130</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="F86" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="16">
         <v>73</v>
       </c>
@@ -3240,19 +3242,19 @@
         <v>130</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="F87" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="16">
         <v>74</v>
       </c>
@@ -3260,19 +3262,19 @@
         <v>130</v>
       </c>
       <c r="C88" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="16">
         <v>75</v>
       </c>
@@ -3280,19 +3282,19 @@
         <v>130</v>
       </c>
       <c r="C89" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="F89" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="16">
         <v>76</v>
       </c>
@@ -3300,19 +3302,19 @@
         <v>130</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="F90" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="16">
         <v>77</v>
       </c>
@@ -3320,19 +3322,19 @@
         <v>130</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="16">
         <v>78</v>
       </c>
@@ -3340,19 +3342,19 @@
         <v>130</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="16">
         <v>79</v>
       </c>
@@ -3360,19 +3362,19 @@
         <v>130</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="16">
         <v>80</v>
       </c>
@@ -3380,19 +3382,19 @@
         <v>130</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="16">
         <v>81</v>
       </c>
@@ -3400,19 +3402,19 @@
         <v>130</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="16">
         <v>82</v>
       </c>
@@ -3420,19 +3422,19 @@
         <v>130</v>
       </c>
       <c r="C96" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="16">
         <v>83</v>
       </c>
@@ -3440,19 +3442,19 @@
         <v>130</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="16">
         <v>84</v>
       </c>
@@ -3460,39 +3462,39 @@
         <v>130</v>
       </c>
       <c r="C98" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F98" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="16">
         <v>85</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="42" t="s">
-        <v>294</v>
+      <c r="C99" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F99" s="41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="16">
         <v>86</v>
       </c>
@@ -3500,15 +3502,15 @@
         <v>130</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="16">
         <v>87</v>
       </c>
@@ -3516,15 +3518,15 @@
         <v>130</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="16">
         <v>88</v>
       </c>
@@ -3532,15 +3534,15 @@
         <v>130</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="16">
         <v>89</v>
       </c>
@@ -3548,15 +3550,15 @@
         <v>130</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="16">
         <v>90</v>
       </c>
@@ -3564,15 +3566,15 @@
         <v>130</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="16">
         <v>91</v>
       </c>
@@ -3580,15 +3582,15 @@
         <v>130</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="16">
         <v>92</v>
       </c>
@@ -3596,15 +3598,15 @@
         <v>130</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="16">
         <v>93</v>
       </c>
@@ -3612,15 +3614,15 @@
         <v>130</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="16">
         <v>94</v>
       </c>
@@ -3628,15 +3630,15 @@
         <v>130</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="16">
         <v>95</v>
       </c>
@@ -3644,15 +3646,15 @@
         <v>130</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="16">
         <v>96</v>
       </c>
@@ -3660,15 +3662,15 @@
         <v>130</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="16">
         <v>97</v>
       </c>
@@ -3676,15 +3678,15 @@
         <v>130</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="16">
         <v>98</v>
       </c>
@@ -3692,15 +3694,15 @@
         <v>130</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="16">
         <v>99</v>
       </c>
@@ -3708,15 +3710,15 @@
         <v>130</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="16">
         <v>100</v>
       </c>
@@ -3724,15 +3726,15 @@
         <v>130</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="16">
         <v>101</v>
       </c>
@@ -3740,15 +3742,15 @@
         <v>130</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="16">
         <v>102</v>
       </c>
@@ -3756,15 +3758,15 @@
         <v>130</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="16">
         <v>103</v>
       </c>
@@ -3772,15 +3774,15 @@
         <v>130</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="16">
         <v>104</v>
       </c>
@@ -3788,15 +3790,15 @@
         <v>130</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="16">
         <v>105</v>
       </c>
@@ -3804,15 +3806,15 @@
         <v>130</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="16">
         <v>106</v>
       </c>
@@ -3820,15 +3822,15 @@
         <v>130</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="16">
         <v>107</v>
       </c>
@@ -3836,15 +3838,15 @@
         <v>130</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="16">
         <v>108</v>
       </c>
@@ -3852,15 +3854,15 @@
         <v>130</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="16">
         <v>109</v>
       </c>
@@ -3868,15 +3870,15 @@
         <v>130</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="16">
         <v>110</v>
       </c>
@@ -3884,15 +3886,15 @@
         <v>130</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="16">
         <v>111</v>
       </c>
@@ -3900,1427 +3902,1427 @@
         <v>130</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="33" t="s">
+    <row r="126" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="27"/>
+    </row>
+    <row r="127" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="28"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="30"/>
+    </row>
+    <row r="128" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="35"/>
-    </row>
-    <row r="127" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="36"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="38"/>
-    </row>
-    <row r="128" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="19" t="s">
+      <c r="C128" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="D128" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="19">
         <v>1010</v>
       </c>
       <c r="B129" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D129" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C129" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="E129" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F129" s="20"/>
     </row>
-    <row r="130" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="19">
         <v>1011</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F130" s="20"/>
     </row>
-    <row r="131" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="19">
         <v>1012</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F131" s="20"/>
     </row>
-    <row r="132" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="19">
         <v>1013</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F132" s="20"/>
     </row>
-    <row r="133" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="19">
         <v>1014</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F133" s="20"/>
     </row>
-    <row r="134" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="19">
         <v>1015</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F134" s="20"/>
     </row>
-    <row r="135" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="19">
         <v>1016</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F135" s="20"/>
     </row>
-    <row r="136" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="19">
         <v>1017</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F136" s="20"/>
+    </row>
+    <row r="137" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E136" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F136" s="20"/>
-    </row>
-    <row r="137" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="19" t="s">
-        <v>233</v>
-      </c>
       <c r="B137" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F137" s="20"/>
     </row>
-    <row r="138" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="19">
         <v>1091</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F138" s="20"/>
     </row>
-    <row r="139" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="19">
         <v>1092</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F139" s="20"/>
     </row>
-    <row r="140" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="19">
         <v>1093</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F140" s="20"/>
     </row>
-    <row r="141" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="19">
         <v>1094</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F141" s="20"/>
     </row>
-    <row r="142" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="19">
         <v>1095</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F142" s="20"/>
     </row>
-    <row r="143" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="19">
         <v>1096</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F143" s="20"/>
     </row>
-    <row r="144" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="19">
         <v>1097</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F144" s="20"/>
     </row>
-    <row r="145" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="19">
         <v>1098</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F145" s="20"/>
     </row>
-    <row r="146" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="19">
         <v>1099</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E146" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F146" s="20"/>
+    </row>
+    <row r="147" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="F146" s="20"/>
-    </row>
-    <row r="147" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F147" s="20"/>
+    </row>
+    <row r="148" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="B148" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="F147" s="20"/>
-    </row>
-    <row r="148" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F148" s="20"/>
     </row>
-    <row r="149" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="19">
         <v>1081</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F149" s="20"/>
     </row>
-    <row r="150" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="19">
         <v>1082</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F150" s="20"/>
     </row>
-    <row r="151" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="19">
         <v>1083</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F151" s="20"/>
     </row>
-    <row r="152" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="19">
         <v>1084</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F152" s="20"/>
     </row>
-    <row r="153" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="19">
         <v>1085</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F153" s="20"/>
     </row>
-    <row r="154" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="19">
         <v>1086</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F154" s="20"/>
     </row>
-    <row r="155" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="19">
         <v>1087</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F155" s="20"/>
     </row>
-    <row r="156" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="19">
         <v>1088</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F156" s="20"/>
     </row>
-    <row r="157" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="19">
         <v>1089</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F157" s="20"/>
     </row>
-    <row r="158" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F158" s="20"/>
+    </row>
+    <row r="159" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E158" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F158" s="20"/>
-    </row>
-    <row r="159" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="19" t="s">
-        <v>241</v>
-      </c>
       <c r="B159" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F159" s="20"/>
     </row>
-    <row r="160" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F160" s="20"/>
     </row>
-    <row r="161" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F161" s="20"/>
+    </row>
+    <row r="162" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="E161" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F161" s="20"/>
-    </row>
-    <row r="162" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="19" t="s">
-        <v>246</v>
-      </c>
       <c r="B162" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F162" s="20"/>
     </row>
-    <row r="163" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F163" s="20"/>
     </row>
-    <row r="164" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F164" s="20"/>
     </row>
-    <row r="165" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F165" s="20"/>
     </row>
-    <row r="166" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F166" s="20"/>
     </row>
-    <row r="167" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F167" s="20"/>
     </row>
-    <row r="168" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F168" s="20"/>
     </row>
-    <row r="169" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F169" s="20"/>
     </row>
-    <row r="170" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F170" s="20"/>
     </row>
-    <row r="171" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F171" s="20"/>
     </row>
-    <row r="172" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F172" s="20"/>
+    </row>
+    <row r="173" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="E172" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F172" s="20"/>
-    </row>
-    <row r="173" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="19" t="s">
-        <v>259</v>
-      </c>
       <c r="B173" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F173" s="20"/>
     </row>
-    <row r="174" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F174" s="20"/>
     </row>
-    <row r="175" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F175" s="20"/>
     </row>
-    <row r="176" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F176" s="20"/>
     </row>
-    <row r="177" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F177" s="20"/>
     </row>
-    <row r="178" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F178" s="20"/>
     </row>
-    <row r="179" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F179" s="20"/>
     </row>
-    <row r="180" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F180" s="20"/>
     </row>
-    <row r="181" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F181" s="20"/>
     </row>
-    <row r="182" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F182" s="20"/>
     </row>
-    <row r="183" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F183" s="20"/>
+    </row>
+    <row r="184" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E183" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F183" s="20"/>
-    </row>
-    <row r="184" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="19" t="s">
-        <v>272</v>
-      </c>
       <c r="B184" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F184" s="20"/>
     </row>
-    <row r="185" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F185" s="20"/>
     </row>
-    <row r="186" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F186" s="20"/>
     </row>
-    <row r="187" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F187" s="20"/>
     </row>
-    <row r="188" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F188" s="20"/>
     </row>
-    <row r="189" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F189" s="20"/>
     </row>
-    <row r="190" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F190" s="20"/>
     </row>
-    <row r="191" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F191" s="20"/>
     </row>
-    <row r="192" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F192" s="20"/>
     </row>
-    <row r="193" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="19">
         <v>1171</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F193" s="20"/>
     </row>
-    <row r="194" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="19">
         <v>1172</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F194" s="20"/>
     </row>
-    <row r="195" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="19">
         <v>1173</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F195" s="20"/>
     </row>
-    <row r="196" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="19">
         <v>1174</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F196" s="20"/>
     </row>
-    <row r="197" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="19">
         <v>1175</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F197" s="20"/>
     </row>
-    <row r="198" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="19">
         <v>1176</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F198" s="20"/>
     </row>
-    <row r="199" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="19">
         <v>1177</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F199" s="20"/>
     </row>
-    <row r="200" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="19">
         <v>1178</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F200" s="20"/>
     </row>
-    <row r="201" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="19">
         <v>1179</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F201" s="20"/>
     </row>
-    <row r="202" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F202" s="20"/>
+    </row>
+    <row r="203" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="E202" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F202" s="20"/>
-    </row>
-    <row r="203" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="19" t="s">
-        <v>284</v>
-      </c>
       <c r="B203" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F203" s="20"/>
     </row>
-    <row r="204" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="19">
         <v>1271</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F204" s="20"/>
     </row>
-    <row r="205" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="19">
         <v>1272</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C205" s="13"/>
       <c r="D205" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F205" s="20"/>
     </row>
-    <row r="206" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="19">
         <v>1273</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F206" s="20"/>
     </row>
-    <row r="207" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="19">
         <v>1274</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C207" s="13"/>
       <c r="D207" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F207" s="20"/>
     </row>
-    <row r="208" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="19">
         <v>1275</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F208" s="20"/>
     </row>
-    <row r="209" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="19">
         <v>1276</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F209" s="20"/>
     </row>
-    <row r="210" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="19">
         <v>1277</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F210" s="20"/>
     </row>
-    <row r="211" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="19">
         <v>1278</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F211" s="20"/>
     </row>
-    <row r="212" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="19">
         <v>1279</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F212" s="20"/>
     </row>
-    <row r="213" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F213" s="20"/>
+    </row>
+    <row r="214" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="E213" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F213" s="20"/>
-    </row>
-    <row r="214" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="13" t="s">
-        <v>288</v>
-      </c>
       <c r="B214" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F214" s="12"/>
     </row>
@@ -5336,6 +5338,6 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="20" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="20" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>